--- a/R_squared results.xlsx
+++ b/R_squared results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\thesis_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B052C7-D0D7-4CA5-B44D-E39F887F8462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89658D3-B011-48A6-A33D-F8B2578080AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2B405893-BFA1-4E27-82D9-4C5261131667}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
   <si>
     <t>MLR Results</t>
   </si>
@@ -183,9 +183,6 @@
     <t>Winter &amp; Weekdays Dataframe</t>
   </si>
   <si>
-    <t>Entire Dataframe (no transformations)</t>
-  </si>
-  <si>
     <t>Filtered Dataframe (Remove households with poor gauss fit) Outliers removed(Sigma1)</t>
   </si>
   <si>
@@ -259,6 +256,9 @@
   </si>
   <si>
     <t>[ 'floor_area(log)', 'monthly_income(log)','AMC_winter(log)', 'AMC_yearly(log)', 'total_residents', 'years_electrified']</t>
+  </si>
+  <si>
+    <t>MAX METHOD</t>
   </si>
 </sst>
 </file>
@@ -289,7 +289,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +302,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -600,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -610,35 +616,8 @@
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -659,9 +638,6 @@
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -687,6 +663,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1003,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65495B6-DA77-41E4-A9F4-C1F6C87A690D}">
   <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,379 +1025,352 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="6"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="41"/>
     </row>
     <row r="2" spans="1:29" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="9" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="14"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="47"/>
     </row>
     <row r="3" spans="1:29" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="15"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="11" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="11" t="s">
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="11" t="s">
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="13"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="44"/>
     </row>
     <row r="4" spans="1:29" ht="322.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="T4" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="U4" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="V4" s="18" t="s">
+      <c r="Q4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="W4" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="X4" s="20" t="s">
+      <c r="S4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="Y4" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>73</v>
+      <c r="U4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="O5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="23" t="s">
+      <c r="Q5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="23" t="s">
+      <c r="R5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="23" t="s">
+      <c r="S5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="23" t="s">
+      <c r="T5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="23" t="s">
+      <c r="U5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="23" t="s">
+      <c r="V5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="23" t="s">
+      <c r="W5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="X5" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y5" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB5" s="45" t="s">
-        <v>2</v>
+      <c r="X5" s="35" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="18">
         <v>0.65</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="19">
         <v>0.65</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="19">
         <v>0.61499999999999999</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="19">
         <v>0.61499999999999999</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="19">
         <v>0.61699999999999999</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="19">
         <v>0.67900000000000005</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="19">
         <v>0.56699999999999995</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="19">
         <v>0.61699999999999999</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="19">
         <v>0.54700000000000004</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="19">
         <v>0.63900000000000001</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="19">
         <v>0.63900000000000001</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="19">
         <v>0.61399999999999999</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="19">
         <v>0.61399999999999999</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="20">
         <v>0.61599999999999999</v>
       </c>
-      <c r="P6" s="28"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29">
+      <c r="P6" s="19">
         <v>0.66</v>
       </c>
-      <c r="V6" s="29">
+      <c r="Q6" s="19">
         <v>0.60599999999999998</v>
       </c>
-      <c r="W6" s="29">
+      <c r="R6" s="19">
         <v>0.60599999999999998</v>
       </c>
-      <c r="X6" s="29">
+      <c r="S6" s="19">
         <v>0.60599999999999998</v>
       </c>
-      <c r="Y6" s="30">
+      <c r="T6" s="20">
         <v>0.60799999999999998</v>
       </c>
-      <c r="Z6" s="45">
+      <c r="U6" s="37">
         <v>0.71</v>
       </c>
-      <c r="AA6" s="45">
+      <c r="V6" s="35">
         <v>0.64</v>
       </c>
-      <c r="AB6" s="45">
+      <c r="W6" s="35">
         <v>0.64</v>
       </c>
+      <c r="X6" s="36">
+        <f>MAX(B6:W6)</f>
+        <v>0.71</v>
+      </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="21">
         <v>0.627</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="22">
         <v>0.51800000000000002</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="22">
         <v>0.63500000000000001</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="22">
         <v>0.61899999999999999</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="22">
         <v>0.63400000000000001</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="22">
         <v>0.65100000000000002</v>
       </c>
       <c r="H7" s="2">
@@ -1415,208 +1394,208 @@
       <c r="N7" s="2">
         <v>0.61799999999999999</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="23">
         <v>0.63300000000000001</v>
       </c>
-      <c r="P7" s="31"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="45">
+      <c r="P7" s="37">
         <v>0.7</v>
       </c>
+      <c r="Q7" s="2">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="T7" s="23">
+        <v>0.64</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0.68</v>
+      </c>
       <c r="V7" s="2">
-        <v>0.63500000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="W7" s="2">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="X7" s="2">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="Y7" s="33">
-        <v>0.64</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="AA7" s="2">
         <v>0.66</v>
       </c>
-      <c r="AB7" s="2">
-        <v>0.66</v>
+      <c r="X7" s="36">
+        <f t="shared" ref="X7:X13" si="0">MAX(B7:W7)</f>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="21">
         <v>0</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="22">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="22">
         <v>6.3E-2</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="22">
         <v>0.05</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="22">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="22">
         <v>0</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="22">
         <v>1.4E-2</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="22">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="22">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="22">
         <v>-9.9000000000000008E-3</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="22">
         <v>-9.9000000000000008E-3</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="22">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="N8" s="32">
+      <c r="N8" s="22">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O8" s="24">
         <v>6.3E-2</v>
       </c>
-      <c r="P8" s="31"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="45">
+      <c r="P8" s="35">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="V8" s="32">
+      <c r="Q8" s="22">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="W8" s="32">
+      <c r="R8" s="22">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="X8" s="45">
+      <c r="S8" s="35">
         <v>0.11</v>
       </c>
-      <c r="Y8" s="34">
+      <c r="T8" s="24">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="Z8" s="45">
+      <c r="U8" s="35">
         <v>-1.6E-2</v>
       </c>
-      <c r="AA8" s="45">
+      <c r="V8" s="35">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AB8" s="45">
+      <c r="W8" s="37">
         <v>0.3</v>
       </c>
+      <c r="X8" s="36">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="21">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="22">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="22">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="22">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="22">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="22">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="22">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="37">
         <v>0.10199999999999999</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="22">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="22">
         <v>7.4099999999999999E-2</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="22">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="22">
         <v>0.09</v>
       </c>
-      <c r="N9" s="32">
+      <c r="N9" s="22">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="24">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="P9" s="31"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="45">
+      <c r="P9" s="35">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="V9" s="45">
+      <c r="Q9" s="35">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="W9" s="45">
+      <c r="R9" s="35">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="X9" s="45">
+      <c r="S9" s="35">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="Y9" s="34">
+      <c r="T9" s="24">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="Z9" s="45">
+      <c r="U9" s="35">
         <v>0.04</v>
       </c>
-      <c r="AA9" s="45">
+      <c r="V9" s="35">
         <v>0.04</v>
       </c>
-      <c r="AB9" s="45">
+      <c r="W9" s="35">
         <v>4.7E-2</v>
       </c>
+      <c r="X9" s="36">
+        <f t="shared" si="0"/>
+        <v>0.10199999999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="21">
         <v>6.2E-2</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="22">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="22">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="22">
         <v>0.04</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="22">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="37">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H10" s="2">
@@ -1640,58 +1619,58 @@
       <c r="N10" s="2">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="O10" s="33">
+      <c r="O10" s="23">
         <v>3.9E-2</v>
       </c>
-      <c r="P10" s="31"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="45">
+      <c r="P10" s="35">
         <v>5.1999999999999998E-2</v>
       </c>
+      <c r="Q10" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="S10" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="T10" s="23">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="U10" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="V10" s="2">
-        <v>0.05</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="W10" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="X10" s="2">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="Y10" s="33">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="AB10" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
+      <c r="X10" s="36">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="21">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="22">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="37">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="22">
         <v>0.04</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="22">
         <v>0.04</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="22">
         <v>2.7E-2</v>
       </c>
       <c r="H11" s="2">
@@ -1715,129 +1694,129 @@
       <c r="N11" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="23">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="P11" s="31"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="45">
+      <c r="P11" s="35">
         <v>3.7000000000000002E-3</v>
       </c>
+      <c r="Q11" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="T11" s="23">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="U11" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="V11" s="2">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="W11" s="2">
+        <v>-2.3999999999999998E-3</v>
+      </c>
+      <c r="X11" s="36">
+        <f t="shared" si="0"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="21">
+        <v>4.7E-2</v>
+      </c>
+      <c r="C12" s="22">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D12" s="22">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E12" s="22">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F12" s="22">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G12" s="22">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H12" s="25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="I12" s="38">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="J12" s="25">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K12" s="25">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L12" s="25">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="M12" s="25">
+        <v>2.8E-3</v>
+      </c>
+      <c r="N12" s="26"/>
+      <c r="O12" s="23">
+        <v>3.1E-2</v>
+      </c>
+      <c r="P12" s="35">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>2.3E-2</v>
+      </c>
+      <c r="R12" s="2">
+        <v>2.3E-2</v>
+      </c>
+      <c r="S12" s="26"/>
+      <c r="T12" s="23">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="U12" s="2">
         <v>0.02</v>
       </c>
-      <c r="W11" s="2">
+      <c r="V12" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="W12" s="2">
         <v>0.02</v>
       </c>
-      <c r="X11" s="2">
-        <v>1.9E-2</v>
-      </c>
-      <c r="Y11" s="33">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AA11" s="2">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="AB11" s="2">
-        <v>-2.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="31">
-        <v>4.7E-2</v>
-      </c>
-      <c r="C12" s="32">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="D12" s="32">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E12" s="32">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="F12" s="32">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G12" s="32">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="H12" s="35">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="I12" s="35">
+      <c r="X12" s="36">
+        <f t="shared" si="0"/>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="J12" s="35">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="K12" s="35">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="L12" s="35">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="M12" s="35">
-        <v>2.8E-3</v>
-      </c>
-      <c r="N12" s="36"/>
-      <c r="O12" s="33">
-        <v>3.1E-2</v>
-      </c>
-      <c r="P12" s="31"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="45">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="V12" s="2">
-        <v>2.3E-2</v>
-      </c>
-      <c r="W12" s="2">
-        <v>2.3E-2</v>
-      </c>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="33">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>0.02</v>
-      </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="21">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="22">
         <v>1.2E-2</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="22">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="22">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="22">
         <v>0.05</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="22">
         <v>3.1E-2</v>
       </c>
       <c r="H13" s="2">
@@ -1855,50 +1834,50 @@
       <c r="L13" s="2">
         <v>0.04</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="38">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="N13" s="36"/>
-      <c r="O13" s="33">
+      <c r="N13" s="26"/>
+      <c r="O13" s="23">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="P13" s="31"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="45">
+      <c r="P13" s="35">
         <v>7.0000000000000001E-3</v>
       </c>
+      <c r="Q13" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R13" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="S13" s="26"/>
+      <c r="T13" s="23">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="U13" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
       <c r="V13" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="W13" s="2">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="33">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="AA13" s="2">
-        <v>3.9E-2</v>
-      </c>
-      <c r="AB13" s="2">
         <v>3.5999999999999997E-2</v>
       </c>
+      <c r="X13" s="36">
+        <f t="shared" si="0"/>
+        <v>6.8000000000000005E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1908,30 +1887,25 @@
       <c r="N14" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="O14" s="34"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="2">
+      <c r="O14" s="24"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="Y14" s="34"/>
+      <c r="T14" s="24"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1941,224 +1915,189 @@
       <c r="N15" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="O15" s="34"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="2">
+      <c r="O15" s="24"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="Y15" s="34"/>
+      <c r="T15" s="24"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
       <c r="N16" s="2">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="O16" s="34"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="2">
+      <c r="O16" s="24"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="Y16" s="34"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="T16" s="24"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
       <c r="N17" s="2">
         <v>-3.2000000000000002E-3</v>
       </c>
-      <c r="O17" s="34"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="2">
+      <c r="O17" s="24"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="2">
         <v>-2E-3</v>
       </c>
-      <c r="Y17" s="34"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="T17" s="24"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
       <c r="N18" s="2">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="O18" s="34"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="2">
+      <c r="O18" s="24"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="Y18" s="34"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="T18" s="24"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
       <c r="N19" s="2">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="O19" s="34"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="2">
+      <c r="O19" s="24"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="Y19" s="34"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="T19" s="24"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
       <c r="N20" s="2">
         <v>6.3E-3</v>
       </c>
-      <c r="O20" s="34"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="2">
+      <c r="O20" s="24"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="Y20" s="34"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="T20" s="24"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="40">
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="30">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="O21" s="41"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="40">
+      <c r="O21" s="31"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="30">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="Y21" s="41"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T21" s="31"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2166,7 +2105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2174,36 +2113,36 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2211,7 +2150,7 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2219,76 +2158,76 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:AC1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:O3"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="P2:AC2"/>
     <mergeCell ref="P3:T3"/>
     <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="A1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
